--- a/biology/Médecine/Diaschisis/Diaschisis.xlsx
+++ b/biology/Médecine/Diaschisis/Diaschisis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diaschisis ou diaschèse est un phénomène d'inhibition fonctionnelle soudaine d'une partie du cerveau située à distance d'une lésion cérébrale, mais qui possède des liens anatomiques et physiologiques directs ou indirects avec la zone lésée. 
-Cette perte soudaine d'une fonction, à distance de la zone endommagée, est réversible[1].
+Cette perte soudaine d'une fonction, à distance de la zone endommagée, est réversible.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot diaschisis est formé à partir du grec ancien δια / dia, « à travers » et σχιζειν / skizein, « partager ».
 </t>
@@ -543,18 +557,20 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Constantin von Monakov a créé ce nom[2],[3] pour tenir compte des paralysies ipsilatérales[Note 1] observées lors de lésions cérébrales, puis de leur récupération post-traumatique[4] : en effet, l'idée que les dommages à une partie du système nerveux peuvent avoir des effets à distance était populaire pendant le XIXe siècle lorsqu'a émergé la théorie du neurone à la suite des travaux de Santiago Ramón y Cajal puis de Heinrich Wilhelm Waldeyer. Cependant la découverte des « centres » au niveau du cerveau, notamment par Broca, a allumé une controverse entre « localisationistes » et « anti-localisationistes ». Le neurologue Jean-Martin Charcot, propose : « il existe certainement, dans l’encéphale, des régions dont la lésion entraîne fatalement les mêmes symptômes. » pour défendre les théories localisationistes tandis que Charles-Édouard Brown-Séquard répond : « J’ai le regret d’être en complet désaccord avec M. Charcot. Je ne saurais accepter la théorie des localisations telle qu’elle est émise actuellement[5]. »
-Von Monakow décrit en fait 3 types de diaschisis[2],[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constantin von Monakov a créé ce nom, pour tenir compte des paralysies ipsilatérales[Note 1] observées lors de lésions cérébrales, puis de leur récupération post-traumatique : en effet, l'idée que les dommages à une partie du système nerveux peuvent avoir des effets à distance était populaire pendant le XIXe siècle lorsqu'a émergé la théorie du neurone à la suite des travaux de Santiago Ramón y Cajal puis de Heinrich Wilhelm Waldeyer. Cependant la découverte des « centres » au niveau du cerveau, notamment par Broca, a allumé une controverse entre « localisationistes » et « anti-localisationistes ». Le neurologue Jean-Martin Charcot, propose : « il existe certainement, dans l’encéphale, des régions dont la lésion entraîne fatalement les mêmes symptômes. » pour défendre les théories localisationistes tandis que Charles-Édouard Brown-Séquard répond : « J’ai le regret d’être en complet désaccord avec M. Charcot. Je ne saurais accepter la théorie des localisations telle qu’elle est émise actuellement. »
+Von Monakow décrit en fait 3 types de diaschisis, :
 le diaschisis cortico-spinalis, impliquant des fonctions motrices spinales dues à des lésions corticales au niveau des aires motrices ;
 le diaschisis associativo-cortical, dû à des lésions ipsilatérales ;
 le diaschisis commisuralis-cortical, dû à des lésions contro-latérales.
-La théorie de von Monakov développe trois aspects[5] :
+La théorie de von Monakov développe trois aspects :
 une lésion neurologique est rarement localisée à une structure histologique nerveuse définie ;
 n'importe quel point du cerveau est interconnecté avec des structures éloignées qui peuvent être « désafférentées » du territoire lésé ;
 ces structures dépendantes peuvent cependant reprendre quelque autonomie comme le révèlent les récupérations comportementales post-traumatiques observées en clinique.
-Le diaschisis implique aussi le concept de plasticité neuronale[6].
+Le diaschisis implique aussi le concept de plasticité neuronale.
 </t>
         </is>
       </c>
@@ -583,10 +599,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est possible de rencontrer un diaschisis lors d'accidents vasculaires cérébraux[7], d'infections du type encéphalite[8] ou de tumeurs[9].
-Le diaschisis cérébelleux croisé (DCC), résultant d'une lésion encéphalique, est expliqué par le fait que chaque hémisphère cérébelleux est étroitement lié à l’hémisphère cérébral controlatéral par des connexions axonales afférentes et efférentes[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible de rencontrer un diaschisis lors d'accidents vasculaires cérébraux, d'infections du type encéphalite ou de tumeurs.
+Le diaschisis cérébelleux croisé (DCC), résultant d'une lésion encéphalique, est expliqué par le fait que chaque hémisphère cérébelleux est étroitement lié à l’hémisphère cérébral controlatéral par des connexions axonales afférentes et efférentes.
 </t>
         </is>
       </c>
@@ -616,6 +634,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
